--- a/wc/expdata/ATLAS7Wm.xlsx
+++ b/wc/expdata/ATLAS7Wm.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>col</t>
   </si>
@@ -445,15 +442,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1589,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1601,519 +1595,499 @@
     <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.65" customHeight="1">
+    <row r="1" ht="21.1" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="21.1" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="4">
+      <c r="A2" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7000</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7">
+        <v>105</v>
+      </c>
+      <c r="G2" s="7">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7">
+        <v>19520</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1290</v>
+      </c>
+      <c r="K2" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" t="s" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="20.85" customHeight="1">
+      <c r="A3" t="s" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="21.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="B3" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="C3" s="12">
         <v>7000</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12">
+        <v>315</v>
+      </c>
+      <c r="G3" s="12">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="F3" s="8">
-        <v>105</v>
-      </c>
-      <c r="G3" s="8">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s" s="9">
+      <c r="I3" s="12">
+        <v>20240</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1190</v>
+      </c>
+      <c r="K3" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I3" s="8">
-        <v>19520</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1290</v>
-      </c>
-      <c r="K3" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s" s="10">
-        <v>20</v>
+      <c r="L3" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s" s="14">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="20.85" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>7000</v>
       </c>
-      <c r="D4" t="s" s="14">
+      <c r="D4" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12">
+        <v>525</v>
+      </c>
+      <c r="G4" s="12">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13">
-        <v>315</v>
-      </c>
-      <c r="G4" s="13">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s" s="14">
+      <c r="I4" s="12">
+        <v>20100</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1140</v>
+      </c>
+      <c r="K4" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I4" s="13">
-        <v>20240</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1190</v>
-      </c>
-      <c r="K4" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s" s="15">
-        <v>22</v>
+      <c r="L4" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="20.85" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>7000</v>
       </c>
-      <c r="D5" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="F5" s="13">
-        <v>525</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="D5" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12">
+        <v>735</v>
+      </c>
+      <c r="G5" s="12">
         <v>20</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12">
+        <v>20570</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1290</v>
+      </c>
+      <c r="K5" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I5" s="13">
-        <v>20100</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1140</v>
-      </c>
-      <c r="K5" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s" s="15">
-        <v>24</v>
+      <c r="L5" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s" s="14">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="20.85" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>7000</v>
       </c>
-      <c r="D6" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F6" s="13">
-        <v>735</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="D6" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="F6" s="12">
+        <v>945</v>
+      </c>
+      <c r="G6" s="12">
         <v>20</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="H6" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I6" s="12">
+        <v>19520</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1240</v>
+      </c>
+      <c r="K6" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I6" s="13">
-        <v>20570</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1290</v>
-      </c>
-      <c r="K6" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s" s="15">
-        <v>26</v>
+      <c r="L6" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s" s="14">
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="20.85" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>7000</v>
       </c>
-      <c r="D7" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="F7" s="13">
-        <v>945</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="D7" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12">
         <v>20</v>
       </c>
-      <c r="H7" t="s" s="14">
+      <c r="H7" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12">
+        <v>16440</v>
+      </c>
+      <c r="J7" s="12">
+        <v>9100</v>
+      </c>
+      <c r="K7" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I7" s="13">
-        <v>19520</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1240</v>
-      </c>
-      <c r="K7" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s" s="15">
-        <v>28</v>
+      <c r="L7" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="20.85" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>7000</v>
       </c>
-      <c r="D8" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="D8" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1445</v>
+      </c>
+      <c r="G8" s="12">
         <v>20</v>
       </c>
-      <c r="H8" t="s" s="14">
+      <c r="H8" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I8" s="12">
+        <v>13200</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1670</v>
+      </c>
+      <c r="K8" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I8" s="13">
-        <v>16440</v>
-      </c>
-      <c r="J8" s="13">
-        <v>9100</v>
-      </c>
-      <c r="K8" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s" s="15">
-        <v>31</v>
+      <c r="L8" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s" s="14">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="20.85" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>7000</v>
       </c>
-      <c r="D9" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1445</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="D9" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="G9" s="12">
         <v>20</v>
       </c>
-      <c r="H9" t="s" s="14">
+      <c r="H9" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12">
+        <v>12180</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1050</v>
+      </c>
+      <c r="K9" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I9" s="13">
-        <v>13200</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1670</v>
-      </c>
-      <c r="K9" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s" s="15">
-        <v>33</v>
+      <c r="L9" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s" s="14">
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="20.85" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>7000</v>
       </c>
-      <c r="D10" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="D10" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1845</v>
+      </c>
+      <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="H10" t="s" s="14">
+      <c r="H10" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12">
+        <v>11520</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K10" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I10" s="13">
-        <v>12180</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1050</v>
-      </c>
-      <c r="K10" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M10" t="s" s="15">
-        <v>36</v>
+      <c r="L10" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s" s="14">
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="20.85" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>7000</v>
       </c>
-      <c r="D11" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1845</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="D11" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2065</v>
+      </c>
+      <c r="G11" s="12">
         <v>20</v>
       </c>
-      <c r="H11" t="s" s="14">
+      <c r="H11" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12">
+        <v>7700</v>
+      </c>
+      <c r="J11" s="12">
+        <v>910</v>
+      </c>
+      <c r="K11" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="I11" s="13">
-        <v>11520</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K11" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s" s="15">
-        <v>38</v>
+      <c r="L11" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s" s="14">
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="20.85" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="B12" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="C12" s="17">
         <v>7000</v>
       </c>
-      <c r="D12" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="F12" s="13">
-        <v>2065</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="D12" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="G12" s="17">
         <v>20</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="I12" s="17">
+        <v>7910</v>
+      </c>
+      <c r="J12" s="17">
+        <v>810</v>
+      </c>
+      <c r="K12" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="I12" s="13">
-        <v>7700</v>
-      </c>
-      <c r="J12" s="13">
-        <v>910</v>
-      </c>
-      <c r="K12" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="20.85" customHeight="1">
-      <c r="A13" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18">
-        <v>7000</v>
-      </c>
-      <c r="D13" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s" s="19">
+      <c r="L12" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s" s="19">
         <v>42</v>
-      </c>
-      <c r="G13" s="18">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="I13" s="18">
-        <v>7910</v>
-      </c>
-      <c r="J13" s="18">
-        <v>810</v>
-      </c>
-      <c r="K13" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s" s="20">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/wc/expdata/ATLAS7Wm.xlsx
+++ b/wc/expdata/ATLAS7Wm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -316,7 +316,7 @@
     <t>pp</t>
   </si>
   <si>
-    <t>W-</t>
+    <t>Wm</t>
   </si>
   <si>
     <t>sig</t>
@@ -325,14 +325,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,7 +350,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -355,14 +369,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -371,10 +414,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -412,69 +455,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,54 +543,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -555,7 +599,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -564,7 +608,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -573,7 +617,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -581,10 +625,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -613,7 +657,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -626,13 +670,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -650,3562 +693,3665 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:CT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="97" max="97" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:98">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0.105</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>7000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>19520</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>1290</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>634.4</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>-197.152</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>298.656</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>156.16</v>
       </c>
-      <c r="O2">
-        <v>-68.31999999999999</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="4">
+        <v>-68.32</v>
+      </c>
+      <c r="P2" s="4">
         <v>9.76</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>-40.992</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>5.856</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>-167.872</v>
       </c>
-      <c r="T2">
-        <v>-66.36799999999999</v>
-      </c>
-      <c r="U2">
+      <c r="T2" s="4">
+        <v>-66.368</v>
+      </c>
+      <c r="U2" s="4">
         <v>-29.28</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>-9.76</v>
       </c>
-      <c r="W2">
-        <v>-81.98399999999999</v>
-      </c>
-      <c r="X2">
+      <c r="W2" s="4">
+        <v>-81.984</v>
+      </c>
+      <c r="X2" s="4">
         <v>-76.128</v>
       </c>
-      <c r="Y2">
-        <v>99.55200000000001</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2" s="4">
+        <v>99.552</v>
+      </c>
+      <c r="Z2" s="4">
         <v>27.328</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="4">
         <v>-31.232</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="4">
         <v>54.656</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="4">
         <v>-78.08</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="4">
         <v>-91.744</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="4">
         <v>-40.992</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="4">
         <v>-19.52</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4">
         <v>7.808</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="4">
         <v>-1.952</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="4">
         <v>29.28</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="4">
         <v>-103.456</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="4">
         <v>50.752</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="4">
         <v>181.536</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="4">
         <v>-187.392</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="4">
         <v>50.752</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="4">
         <v>1.952</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="4">
         <v>48.8</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="4">
         <v>105.408</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="4">
         <v>122.976</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="4">
         <v>64.416</v>
       </c>
-      <c r="AT2">
-        <v>99.55200000000001</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2" s="4">
+        <v>99.552</v>
+      </c>
+      <c r="AU2" s="4">
         <v>3.904</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="4">
         <v>80.032</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="4">
         <v>1.952</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="4">
         <v>64.416</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="4">
         <v>87.84</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="4">
         <v>58.56</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="4">
         <v>50.752</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="4">
         <v>-103.456</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="4">
         <v>80.032</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="4">
         <v>-130.784</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="4">
         <v>-40.992</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="4">
         <v>142.496</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="4">
         <v>-93.696</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="4">
         <v>27.328</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="4">
         <v>-37.088</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="4">
         <v>72.224</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="4">
         <v>105.408</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="4">
         <v>144.448</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="4">
         <v>107.36</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="4">
         <v>-11.712</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="4">
         <v>-31.232</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="4">
         <v>-142.496</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="4">
         <v>-52.704</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="4">
         <v>-15.616</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="4">
         <v>-152.256</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="4">
         <v>62.464</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="4">
         <v>236.192</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="4">
         <v>-21.472</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="4">
         <v>109.312</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="4">
         <v>162.016</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="4">
         <v>-296.704</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="4">
         <v>-52.704</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="4">
         <v>-210.816</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="4">
         <v>7.808</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="4">
         <v>-101.504</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="4">
         <v>-62.464</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="4">
         <v>-33.184</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="4">
         <v>203.008</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="4">
         <v>-27.328</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="4">
         <v>-89.792</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="4">
         <v>203.008</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="4">
         <v>-228.384</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="4">
         <v>9.76</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="4">
         <v>74.176</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="4">
         <v>21.472</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="4">
         <v>-91.744</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="4">
         <v>-113.216</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="4">
         <v>-177.632</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="4">
         <v>343.552</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="4">
         <v>119.072</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="4">
         <v>-181.536</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="4">
         <v>351.36</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.315</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>7000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>20240</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>1190</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>595.056</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>192.28</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>344.08</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>295.504</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>-72.864</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>-91.08</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>10.12</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>36.432</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>-165.968</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>-66.792</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>24.288</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>16.192</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>-26.312</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="4">
         <v>-109.296</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="4">
         <v>97.152</v>
       </c>
-      <c r="Z3">
-        <v>78.93600000000001</v>
-      </c>
-      <c r="AA3">
+      <c r="Z3" s="4">
+        <v>78.936</v>
+      </c>
+      <c r="AA3" s="4">
         <v>-28.336</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="4">
         <v>-6.072</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="4">
         <v>-95.128</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="4">
         <v>-85.008</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="4">
         <v>-109.296</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="4">
         <v>-8.096</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4">
         <v>-26.312</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="4">
         <v>30.36</v>
       </c>
-      <c r="AI3">
-        <v>76.91200000000001</v>
-      </c>
-      <c r="AJ3">
+      <c r="AI3" s="4">
+        <v>76.912</v>
+      </c>
+      <c r="AJ3" s="4">
         <v>-72.864</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="4">
         <v>89.056</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="4">
         <v>180.136</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="4">
         <v>-170.016</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="4">
         <v>16.192</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="4">
         <v>34.408</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="4">
         <v>24.288</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="4">
         <v>97.152</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="4">
         <v>121.44</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="4">
         <v>133.584</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="4">
         <v>70.84</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="4">
         <v>16.192</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="4">
         <v>135.608</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="4">
         <v>56.672</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="4">
         <v>93.104</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="4">
         <v>50.6</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="4">
         <v>26.312</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="4">
         <v>66.792</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="4">
         <v>-68.816</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="4">
         <v>99.176</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="4">
         <v>-68.816</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="4">
         <v>-46.552</v>
       </c>
-      <c r="BF3">
-        <v>80.95999999999999</v>
-      </c>
-      <c r="BG3">
-        <v>-80.95999999999999</v>
-      </c>
-      <c r="BH3">
+      <c r="BF3" s="4">
+        <v>80.96</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>-80.96</v>
+      </c>
+      <c r="BH3" s="4">
         <v>-38.456</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="4">
         <v>16.192</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="4">
         <v>26.312</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="4">
         <v>70.84</v>
       </c>
-      <c r="BL3">
-        <v>76.91200000000001</v>
-      </c>
-      <c r="BM3">
+      <c r="BL3" s="4">
+        <v>76.912</v>
+      </c>
+      <c r="BM3" s="4">
         <v>36.432</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="4">
         <v>-30.36</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="4">
         <v>-16.192</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="4">
         <v>-196.328</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="4">
         <v>-8.096</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="4">
         <v>-34.408</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="4">
         <v>-190.256</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="4">
         <v>8.096</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="4">
         <v>226.688</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="4">
         <v>-28.336</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="4">
         <v>224.664</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="4">
         <v>210.496</v>
       </c>
-      <c r="BY3">
-        <v>74.88800000000001</v>
-      </c>
-      <c r="BZ3">
+      <c r="BY3" s="4">
+        <v>74.888</v>
+      </c>
+      <c r="BZ3" s="4">
         <v>-60.72</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="4">
         <v>-250.976</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" s="4">
         <v>48.576</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" s="4">
         <v>12.144</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" s="4">
         <v>-12.144</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" s="4">
         <v>-24.288</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" s="4">
         <v>141.68</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" s="4">
         <v>36.432</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="4">
         <v>-26.312</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" s="4">
         <v>155.848</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" s="4">
         <v>-176.088</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" s="4">
         <v>184.184</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" s="4">
         <v>-38.456</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" s="4">
         <v>-89.056</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" s="4">
         <v>-139.656</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" s="4">
         <v>-214.544</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" s="4">
         <v>-190.256</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" s="4">
         <v>528.264</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" s="4">
         <v>281.336</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" s="4">
         <v>-172.04</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" s="4">
         <v>364.32</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.525</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>7000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>20100</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>1140</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>657.27</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>-389.94</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>-122.61</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>168.84</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>-50.25</v>
       </c>
-      <c r="P4">
-        <v>-80.40000000000001</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" s="4">
+        <v>-80.4</v>
+      </c>
+      <c r="Q4" s="4">
         <v>-40.2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>14.07</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>-190.95</v>
       </c>
-      <c r="T4">
-        <v>-92.45999999999999</v>
-      </c>
-      <c r="U4">
+      <c r="T4" s="4">
+        <v>-92.46</v>
+      </c>
+      <c r="U4" s="4">
         <v>-36.18</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>16.08</v>
       </c>
-      <c r="W4">
-        <v>-86.43000000000001</v>
-      </c>
-      <c r="X4">
+      <c r="W4" s="4">
+        <v>-86.43</v>
+      </c>
+      <c r="X4" s="4">
         <v>-116.58</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="4">
         <v>66.33</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <v>40.2</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="4">
         <v>-62.31</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="4">
         <v>24.12</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="4">
         <v>-120.6</v>
       </c>
-      <c r="AD4">
-        <v>-92.45999999999999</v>
-      </c>
-      <c r="AE4">
+      <c r="AD4" s="4">
+        <v>-92.46</v>
+      </c>
+      <c r="AE4" s="4">
         <v>-62.31</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="4">
         <v>10.05</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="4">
         <v>-18.09</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="4">
         <v>12.06</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="4">
         <v>46.23</v>
       </c>
-      <c r="AJ4">
-        <v>-80.40000000000001</v>
-      </c>
-      <c r="AK4">
+      <c r="AJ4" s="4">
+        <v>-80.4</v>
+      </c>
+      <c r="AK4" s="4">
         <v>32.16</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="4">
         <v>148.74</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="4">
         <v>-124.62</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="4">
         <v>48.24</v>
       </c>
-      <c r="AO4">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AP4">
-        <v>64.31999999999999</v>
-      </c>
-      <c r="AQ4">
+      <c r="AO4" s="4">
+        <v>8.04</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>64.32</v>
+      </c>
+      <c r="AQ4" s="4">
         <v>96.48</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="4">
         <v>128.64</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="4">
         <v>74.37</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="4">
         <v>76.38</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="4">
         <v>-12.06</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="4">
         <v>102.51</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="4">
         <v>-6.03</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="4">
         <v>62.31</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="4">
         <v>38.19</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="4">
         <v>40.2</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="4">
         <v>120.6</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="4">
         <v>-84.42</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="4">
         <v>78.39</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="4">
         <v>-128.64</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="4">
         <v>-44.22</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="4">
         <v>156.78</v>
       </c>
-      <c r="BG4">
-        <v>-86.43000000000001</v>
-      </c>
-      <c r="BH4">
+      <c r="BG4" s="4">
+        <v>-86.43</v>
+      </c>
+      <c r="BH4" s="4">
         <v>16.08</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="4">
         <v>-32.16</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="4">
         <v>62.31</v>
       </c>
-      <c r="BK4">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="BL4">
+      <c r="BK4" s="4">
+        <v>80.4</v>
+      </c>
+      <c r="BL4" s="4">
         <v>94.47</v>
       </c>
-      <c r="BM4">
-        <v>92.45999999999999</v>
-      </c>
-      <c r="BN4">
+      <c r="BM4" s="4">
+        <v>92.46</v>
+      </c>
+      <c r="BN4" s="4">
         <v>-32.16</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="4">
         <v>-12.06</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="4">
         <v>-146.73</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="4">
         <v>-20.1</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="4">
         <v>-14.07</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="4">
         <v>-168.84</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="4">
         <v>72.36</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="4">
         <v>249.24</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="4">
         <v>-26.13</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="4">
         <v>160.8</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="4">
         <v>-233.16</v>
       </c>
-      <c r="BY4">
-        <v>-516.5700000000001</v>
-      </c>
-      <c r="BZ4">
+      <c r="BY4" s="4">
+        <v>-516.57</v>
+      </c>
+      <c r="BZ4" s="4">
         <v>-28.14</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="4">
         <v>-164.82</v>
       </c>
-      <c r="CB4">
-        <v>92.45999999999999</v>
-      </c>
-      <c r="CC4">
-        <v>-64.31999999999999</v>
-      </c>
-      <c r="CD4">
+      <c r="CB4" s="4">
+        <v>92.46</v>
+      </c>
+      <c r="CC4" s="4">
+        <v>-64.32</v>
+      </c>
+      <c r="CD4" s="4">
         <v>50.25</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" s="4">
         <v>-10.05</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" s="4">
         <v>96.48</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" s="4">
         <v>10.05</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="4">
         <v>-72.36</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="4">
         <v>138.69</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" s="4">
         <v>-146.73</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" s="4">
         <v>100.5</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" s="4">
         <v>44.22</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="4">
         <v>52.26</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" s="4">
         <v>-76.38</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" s="4">
         <v>-215.07</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" s="4">
         <v>-88.44</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" s="4">
         <v>369.84</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" s="4">
         <v>102.51</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" s="4">
         <v>-130.65</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" s="4">
         <v>361.8</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.735</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>7000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>20570</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>1290</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>608.872</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>287.98</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>-302.379</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>446.369</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>-41.14</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>-24.684</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>-41.14</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <v>6.171</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>-176.902</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="4">
         <v>-113.135</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <v>-65.824</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>-12.342</v>
       </c>
-      <c r="W5">
-        <v>-86.39400000000001</v>
-      </c>
-      <c r="X5">
-        <v>-86.39400000000001</v>
-      </c>
-      <c r="Y5">
-        <v>86.39400000000001</v>
-      </c>
-      <c r="Z5">
+      <c r="W5" s="4">
+        <v>-86.394</v>
+      </c>
+      <c r="X5" s="4">
+        <v>-86.394</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>86.394</v>
+      </c>
+      <c r="Z5" s="4">
         <v>6.171</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="4">
         <v>-57.596</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="4">
         <v>26.741</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="4">
         <v>-121.363</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="4">
         <v>-65.824</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="4">
         <v>-51.425</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="4">
         <v>-22.627</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="4">
         <v>-24.684</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="4">
         <v>-14.399</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="4">
         <v>26.741</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="4">
         <v>-115.192</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="4">
         <v>-6.171</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="4">
         <v>150.161</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="4">
         <v>-183.073</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="4">
         <v>61.71</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="4">
         <v>-24.684</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="4">
         <v>100.793</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="4">
         <v>65.824</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="4">
         <v>111.078</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="4">
         <v>65.824</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="4">
         <v>55.539</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="4">
         <v>-41.14</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="4">
         <v>111.078</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="4">
         <v>-22.627</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="4">
         <v>65.824</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="4">
         <v>78.166</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="4">
         <v>61.71</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="4">
         <v>84.337</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="4">
         <v>-123.42</v>
       </c>
-      <c r="BC5">
-        <v>86.39400000000001</v>
-      </c>
-      <c r="BD5">
+      <c r="BC5" s="4">
+        <v>86.394</v>
+      </c>
+      <c r="BD5" s="4">
         <v>-146.047</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="4">
         <v>-45.254</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="4">
         <v>166.617</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="4">
         <v>-84.337</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="4">
         <v>39.083</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="4">
         <v>-96.679</v>
       </c>
-      <c r="BJ5">
-        <v>76.10899999999999</v>
-      </c>
-      <c r="BK5">
+      <c r="BJ5" s="4">
+        <v>76.109</v>
+      </c>
+      <c r="BK5" s="4">
         <v>113.135</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="4">
         <v>137.819</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="4">
         <v>129.591</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="4">
         <v>-20.57</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="5">
         <v>0</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="4">
         <v>-143.99</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="4">
         <v>-78.166</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="4">
         <v>-28.798</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="4">
         <v>-121.363</v>
       </c>
-      <c r="BT5">
-        <v>86.39400000000001</v>
-      </c>
-      <c r="BU5">
+      <c r="BT5" s="4">
+        <v>86.394</v>
+      </c>
+      <c r="BU5" s="4">
         <v>222.156</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="4">
         <v>-12.342</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="4">
         <v>440.198</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="4">
         <v>-438.141</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="4">
         <v>162.503</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="4">
         <v>-30.855</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="4">
         <v>-201.586</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="4">
         <v>-24.684</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" s="4">
         <v>-57.596</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" s="4">
         <v>-2.057</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" s="4">
         <v>-2.057</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" s="4">
         <v>82.28</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" s="4">
         <v>24.684</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" s="4">
         <v>-160.446</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" s="4">
         <v>98.736</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" s="4">
         <v>-174.845</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" s="4">
         <v>-82.28</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" s="4">
         <v>82.28</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" s="4">
         <v>164.56</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" s="4">
         <v>-189.244</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" s="4">
         <v>-271.524</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" s="4">
         <v>-63.767</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" s="4">
         <v>187.187</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" s="4">
         <v>-104.907</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" s="4">
         <v>-117.249</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" s="4">
         <v>370.26</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.945</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>7000</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>19520</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>1240</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>683.2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>-856.928</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>-411.872</v>
       </c>
-      <c r="N6">
-        <v>83.93600000000001</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="4">
+        <v>83.936</v>
+      </c>
+      <c r="O6" s="4">
         <v>-54.656</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>-44.896</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>-17.568</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>3.904</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>-171.776</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>-52.704</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>-1.952</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>7.808</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>-80.032</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="4">
         <v>-91.744</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="4">
         <v>52.704</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <v>44.896</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>-37.088</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="4">
         <v>27.328</v>
       </c>
-      <c r="AC6">
-        <v>-99.55200000000001</v>
-      </c>
-      <c r="AD6">
+      <c r="AC6" s="4">
+        <v>-99.552</v>
+      </c>
+      <c r="AD6" s="4">
         <v>-50.752</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="4">
         <v>-21.472</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="4">
         <v>9.76</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="4">
         <v>35.136</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="4">
         <v>-33.184</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="4">
         <v>44.896</v>
       </c>
-      <c r="AJ6">
-        <v>-99.55200000000001</v>
-      </c>
-      <c r="AK6">
+      <c r="AJ6" s="4">
+        <v>-99.552</v>
+      </c>
+      <c r="AK6" s="4">
         <v>50.752</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="4">
         <v>160.064</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="4">
         <v>-103.456</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="4">
         <v>52.704</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="4">
         <v>-23.424</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="4">
         <v>37.088</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="4">
         <v>76.128</v>
       </c>
-      <c r="AR6">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="AS6">
+      <c r="AR6" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="AS6" s="4">
         <v>140.544</v>
       </c>
-      <c r="AT6">
-        <v>66.36799999999999</v>
-      </c>
-      <c r="AU6">
+      <c r="AT6" s="4">
+        <v>66.368</v>
+      </c>
+      <c r="AU6" s="4">
         <v>23.424</v>
       </c>
-      <c r="AV6">
-        <v>99.55200000000001</v>
-      </c>
-      <c r="AW6">
+      <c r="AV6" s="4">
+        <v>99.552</v>
+      </c>
+      <c r="AW6" s="4">
         <v>37.088</v>
       </c>
-      <c r="AX6">
-        <v>83.93600000000001</v>
-      </c>
-      <c r="AY6">
+      <c r="AX6" s="4">
+        <v>83.936</v>
+      </c>
+      <c r="AY6" s="4">
         <v>60.512</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="5">
         <v>0</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="4">
         <v>54.656</v>
       </c>
-      <c r="BB6">
-        <v>-81.98399999999999</v>
-      </c>
-      <c r="BC6">
+      <c r="BB6" s="4">
+        <v>-81.984</v>
+      </c>
+      <c r="BC6" s="4">
         <v>56.608</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="4">
         <v>-103.456</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="4">
         <v>-37.088</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="4">
         <v>95.648</v>
       </c>
-      <c r="BG6">
-        <v>-70.27200000000001</v>
-      </c>
-      <c r="BH6">
+      <c r="BG6" s="4">
+        <v>-70.272</v>
+      </c>
+      <c r="BH6" s="4">
         <v>3.904</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="5">
         <v>0</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="4">
         <v>62.464</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="4">
         <v>93.696</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="4">
         <v>138.592</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="4">
         <v>136.64</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="4">
         <v>-17.568</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="4">
         <v>-13.664</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="4">
         <v>-171.776</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="4">
         <v>3.904</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="4">
         <v>25.376</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="4">
         <v>-152.256</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="4">
         <v>60.512</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="4">
         <v>245.952</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" s="4">
         <v>-5.856</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="4">
         <v>64.416</v>
       </c>
-      <c r="BX6">
-        <v>-548.5119999999999</v>
-      </c>
-      <c r="BY6">
+      <c r="BX6" s="4">
+        <v>-548.512</v>
+      </c>
+      <c r="BY6" s="4">
         <v>-954.528</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" s="4">
         <v>-27.328</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" s="4">
         <v>-232.288</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" s="4">
         <v>40.992</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" s="4">
         <v>80.032</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" s="4">
         <v>-15.616</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" s="4">
         <v>117.12</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" s="4">
         <v>220.576</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" s="4">
         <v>46.848</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" s="4">
         <v>-160.064</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" s="4">
         <v>156.16</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" s="4">
         <v>-191.296</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" s="4">
         <v>95.648</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" s="4">
         <v>-21.472</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" s="4">
         <v>-42.944</v>
       </c>
-      <c r="CN6">
-        <v>-83.93600000000001</v>
-      </c>
-      <c r="CO6">
+      <c r="CN6" s="4">
+        <v>-83.936</v>
+      </c>
+      <c r="CO6" s="4">
         <v>-214.72</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" s="4">
         <v>-31.232</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" s="4">
         <v>384.544</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" s="4">
         <v>109.312</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" s="4">
         <v>-146.4</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" s="4">
         <v>351.36</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1.21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>7000</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>16440</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>910</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>475.116</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>318.936</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>128.232</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>333.732</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>-57.54</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>-42.744</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>21.372</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>-157.824</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>-19.728</v>
       </c>
-      <c r="U7">
-        <v>-9.864000000000001</v>
-      </c>
-      <c r="V7">
+      <c r="U7" s="4">
+        <v>-9.864</v>
+      </c>
+      <c r="V7" s="4">
         <v>1.644</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <v>-42.744</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="4">
         <v>-73.98</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="4">
         <v>110.148</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <v>14.796</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="4">
         <v>-52.608</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="4">
         <v>32.88</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="4">
         <v>-101.928</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="4">
         <v>-52.608</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="4">
         <v>-31.236</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="4">
         <v>-29.592</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="4">
         <v>-14.796</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="4">
         <v>-3.288</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="4">
         <v>16.44</v>
       </c>
-      <c r="AJ7">
-        <v>-78.91200000000001</v>
-      </c>
-      <c r="AK7">
+      <c r="AJ7" s="4">
+        <v>-78.912</v>
+      </c>
+      <c r="AK7" s="4">
         <v>62.472</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="4">
         <v>170.976</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="4">
         <v>-131.52</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="4">
         <v>29.592</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="4">
         <v>44.388</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="4">
         <v>82.2</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="4">
         <v>82.2</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="4">
         <v>93.708</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="4">
         <v>72.336</v>
       </c>
-      <c r="AT7">
-        <v>70.69199999999999</v>
-      </c>
-      <c r="AU7">
+      <c r="AT7" s="4">
+        <v>70.692</v>
+      </c>
+      <c r="AU7" s="4">
         <v>11.508</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="4">
         <v>106.86</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="4">
         <v>32.88</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="4">
         <v>44.388</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="4">
         <v>37.812</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="4">
         <v>26.304</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="4">
         <v>67.404</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="4">
         <v>-85.488</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="4">
         <v>50.964</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" s="4">
         <v>-106.86</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="4">
         <v>-31.236</v>
       </c>
-      <c r="BF7">
-        <v>70.69199999999999</v>
-      </c>
-      <c r="BG7">
+      <c r="BF7" s="4">
+        <v>70.692</v>
+      </c>
+      <c r="BG7" s="4">
         <v>-55.896</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="4">
         <v>-31.236</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="4">
         <v>-26.304</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" s="4">
         <v>21.372</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" s="4">
         <v>62.472</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" s="4">
         <v>42.744</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="4">
         <v>90.42</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="4">
         <v>-37.812</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" s="4">
         <v>-27.948</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" s="4">
         <v>-149.604</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" s="4">
         <v>-26.304</v>
       </c>
-      <c r="BR7">
-        <v>-9.864000000000001</v>
-      </c>
-      <c r="BS7">
+      <c r="BR7" s="4">
+        <v>-9.864</v>
+      </c>
+      <c r="BS7" s="4">
         <v>-136.452</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" s="4">
         <v>-11.508</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" s="4">
         <v>175.908</v>
       </c>
-      <c r="BV7">
-        <v>-9.864000000000001</v>
-      </c>
-      <c r="BW7">
+      <c r="BV7" s="4">
+        <v>-9.864</v>
+      </c>
+      <c r="BW7" s="4">
         <v>276.192</v>
       </c>
-      <c r="BX7">
-        <v>9.864000000000001</v>
-      </c>
-      <c r="BY7">
+      <c r="BX7" s="4">
+        <v>9.864</v>
+      </c>
+      <c r="BY7" s="4">
         <v>248.244</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" s="4">
         <v>-32.88</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" s="4">
         <v>-166.044</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" s="4">
         <v>50.964</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" s="4">
         <v>21.372</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" s="4">
         <v>-32.88</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" s="4">
         <v>-57.54</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" s="4">
         <v>197.28</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" s="4">
         <v>3.288</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" s="4">
         <v>23.016</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" s="4">
         <v>195.636</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" s="4">
         <v>-18.084</v>
       </c>
-      <c r="CK7">
-        <v>87.13200000000001</v>
-      </c>
-      <c r="CL7">
+      <c r="CK7" s="4">
+        <v>87.132</v>
+      </c>
+      <c r="CL7" s="4">
         <v>39.456</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" s="4">
         <v>26.304</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" s="4">
         <v>-85.488</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" s="4">
         <v>-95.352</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" s="4">
         <v>-60.828</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" s="4">
         <v>189.06</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" s="4">
         <v>258.108</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" s="4">
         <v>-124.944</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" s="4">
         <v>295.92</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1.445</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>7000</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>13200</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>1670</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>679.8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>871.2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>1341.12</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>153.12</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>-17.16</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>-48.84</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>-1.32</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>-15.84</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>-143.88</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>-52.8</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>-5.28</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>-50.16</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <v>-51.48</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="4">
         <v>-96.36</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="5">
         <v>66</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="4">
         <v>3.96</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="4">
         <v>-13.2</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="4">
         <v>80.52</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="5">
         <v>-66</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="4">
         <v>-60.72</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="4">
         <v>3.96</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="4">
         <v>-26.4</v>
       </c>
-      <c r="AG8">
-        <v>75.23999999999999</v>
-      </c>
-      <c r="AH8">
-        <v>-95.04000000000001</v>
-      </c>
-      <c r="AI8">
+      <c r="AG8" s="4">
+        <v>75.24</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>-95.04</v>
+      </c>
+      <c r="AI8" s="4">
         <v>13.2</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="5">
         <v>-33</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="4">
         <v>-7.92</v>
       </c>
-      <c r="AL8">
-        <v>89.76000000000001</v>
-      </c>
-      <c r="AM8">
+      <c r="AL8" s="4">
+        <v>89.76</v>
+      </c>
+      <c r="AM8" s="4">
         <v>-59.4</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="4">
         <v>77.88</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="4">
         <v>50.16</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="4">
         <v>48.84</v>
       </c>
-      <c r="AQ8">
-        <v>67.31999999999999</v>
-      </c>
-      <c r="AR8">
+      <c r="AQ8" s="4">
+        <v>67.32</v>
+      </c>
+      <c r="AR8" s="4">
         <v>42.24</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="4">
         <v>43.56</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="4">
         <v>59.4</v>
       </c>
-      <c r="AU8">
-        <v>-75.23999999999999</v>
-      </c>
-      <c r="AV8">
+      <c r="AU8" s="4">
+        <v>-75.24</v>
+      </c>
+      <c r="AV8" s="4">
         <v>114.84</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="4">
         <v>25.08</v>
       </c>
-      <c r="AX8">
-        <v>69.95999999999999</v>
-      </c>
-      <c r="AY8">
+      <c r="AX8" s="4">
+        <v>69.96</v>
+      </c>
+      <c r="AY8" s="4">
         <v>2.64</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="4">
         <v>2.64</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" s="4">
         <v>71.28</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" s="4">
         <v>-2.64</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" s="5">
         <v>66</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" s="4">
         <v>-87.12</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="4">
         <v>-30.36</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="4">
         <v>102.96</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" s="4">
         <v>-116.16</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="4">
         <v>-54.12</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" s="4">
         <v>-63.36</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" s="4">
         <v>59.4</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" s="4">
         <v>68.64</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" s="4">
         <v>93.72</v>
       </c>
-      <c r="BM8">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="BN8">
+      <c r="BM8" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="BN8" s="4">
         <v>2.64</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" s="4">
         <v>-25.08</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" s="4">
         <v>-154.44</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" s="4">
         <v>79.2</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" s="4">
         <v>52.8</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" s="4">
         <v>-81.84</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" s="4">
         <v>39.6</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" s="4">
         <v>154.44</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" s="4">
         <v>-6.6</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" s="4">
         <v>171.6</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" s="4">
         <v>1246.08</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" s="4">
         <v>784.08</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" s="5">
         <v>33</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" s="4">
         <v>-195.36</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" s="4">
         <v>182.16</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" s="4">
         <v>10.56</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" s="4">
         <v>35.64</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" s="4">
         <v>76.56</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" s="5">
         <v>165</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" s="4">
         <v>79.2</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" s="4">
         <v>-349.8</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" s="4">
         <v>58.08</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" s="5">
         <v>0</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" s="4">
         <v>170.28</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" s="5">
         <v>33</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" s="4">
         <v>-71.28</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" s="4">
         <v>19.8</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" s="4">
         <v>68.64</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" s="4">
         <v>-172.92</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" s="4">
         <v>-151.8</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" s="4">
         <v>80.52</v>
       </c>
-      <c r="CS8">
-        <v>69.95999999999999</v>
-      </c>
-      <c r="CT8">
+      <c r="CS8" s="4">
+        <v>69.96</v>
+      </c>
+      <c r="CT8" s="4">
         <v>237.6</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1.63</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>7000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>12180</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>1050</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>489.636</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>79.17</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>371.49</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>92.568</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>-49.938</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>-24.36</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>21.924</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>4.872</v>
       </c>
-      <c r="S9">
-        <v>-85.26000000000001</v>
-      </c>
-      <c r="T9">
+      <c r="S9" s="4">
+        <v>-85.26</v>
+      </c>
+      <c r="T9" s="4">
         <v>-41.412</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <v>-4.872</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>-37.758</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="4">
         <v>-24.36</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="4">
         <v>-43.848</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="4">
         <v>87.696</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="4">
         <v>24.36</v>
       </c>
-      <c r="AA9">
-        <v>-81.60599999999999</v>
-      </c>
-      <c r="AB9">
+      <c r="AA9" s="4">
+        <v>-81.606</v>
+      </c>
+      <c r="AB9" s="4">
         <v>26.796</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="4">
         <v>-92.568</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="4">
         <v>-45.066</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="4">
         <v>19.488</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="4">
         <v>-1.218</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="4">
         <v>13.398</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="4">
         <v>-34.104</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="4">
         <v>53.592</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="4">
         <v>-73.08</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="4">
         <v>21.924</v>
       </c>
-      <c r="AL9">
-        <v>96.22199999999999</v>
-      </c>
-      <c r="AM9">
+      <c r="AL9" s="4">
+        <v>96.222</v>
+      </c>
+      <c r="AM9" s="4">
         <v>-121.8</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="4">
         <v>17.052</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="4">
         <v>24.36</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="4">
         <v>124.236</v>
       </c>
-      <c r="AQ9">
-        <v>76.73399999999999</v>
-      </c>
-      <c r="AR9">
+      <c r="AQ9" s="4">
+        <v>76.734</v>
+      </c>
+      <c r="AR9" s="4">
         <v>73.08</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="4">
         <v>68.208</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="4">
         <v>45.066</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="4">
         <v>7.308</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="4">
         <v>36.54</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="4">
         <v>30.45</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="4">
         <v>28.014</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="4">
         <v>54.81</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="4">
         <v>24.36</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" s="4">
         <v>51.156</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" s="4">
         <v>-79.17</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" s="4">
         <v>42.63</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="4">
         <v>-84.042</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" s="4">
         <v>-23.142</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="4">
         <v>46.284</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" s="4">
         <v>-34.104</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="4">
         <v>-15.834</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="4">
         <v>17.052</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" s="4">
         <v>18.27</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" s="5">
         <v>0</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" s="4">
         <v>34.104</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" s="4">
         <v>87.696</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" s="4">
         <v>-32.886</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" s="4">
         <v>-23.142</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" s="4">
         <v>-109.62</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" s="4">
         <v>-35.322</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" s="4">
         <v>40.194</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" s="4">
         <v>-56.028</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" s="4">
         <v>9.744</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" s="4">
         <v>136.416</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" s="4">
         <v>-1.218</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" s="4">
         <v>115.71</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" s="4">
         <v>295.974</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" s="4">
         <v>1.218</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" s="4">
         <v>-74.298</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" s="4">
         <v>-154.686</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" s="4">
         <v>25.578</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" s="4">
         <v>-29.232</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" s="4">
         <v>43.848</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" s="4">
         <v>-1.218</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" s="4">
         <v>176.61</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" s="4">
         <v>-30.45</v>
       </c>
-      <c r="CH9">
-        <v>-86.47799999999999</v>
-      </c>
-      <c r="CI9">
+      <c r="CH9" s="4">
+        <v>-86.478</v>
+      </c>
+      <c r="CI9" s="4">
         <v>101.094</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" s="4">
         <v>-141.288</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" s="4">
         <v>57.246</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" s="4">
         <v>58.464</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" s="4">
         <v>-153.468</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" s="4">
         <v>-35.322</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" s="4">
         <v>-54.81</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" s="4">
         <v>-64.554</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" s="4">
         <v>146.16</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" s="4">
         <v>235.074</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" s="4">
         <v>-152.25</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" s="4">
         <v>219.24</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1.845</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>7000</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>11520</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>1000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>453.888</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>26.496</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>138.24</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>130.176</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>-21.888</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>1.152</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>-3.456</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>5.76</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>-119.808</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>-47.232</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>-16.128</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>24.192</v>
       </c>
-      <c r="W10">
-        <v>-71.42400000000001</v>
-      </c>
-      <c r="X10">
+      <c r="W10" s="4">
+        <v>-71.424</v>
+      </c>
+      <c r="X10" s="4">
         <v>-76.032</v>
       </c>
-      <c r="Y10">
-        <v>70.27200000000001</v>
-      </c>
-      <c r="Z10">
+      <c r="Y10" s="4">
+        <v>70.272</v>
+      </c>
+      <c r="Z10" s="4">
         <v>10.368</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="4">
         <v>-35.712</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="4">
         <v>46.08</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="4">
         <v>-64.512</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="4">
         <v>-66.816</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="4">
         <v>-20.736</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="4">
         <v>-10.368</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="4">
         <v>20.736</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="4">
         <v>-31.104</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="4">
         <v>46.08</v>
       </c>
-      <c r="AJ10">
-        <v>-72.57599999999999</v>
-      </c>
-      <c r="AK10">
+      <c r="AJ10" s="4">
+        <v>-72.576</v>
+      </c>
+      <c r="AK10" s="4">
         <v>24.192</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="4">
         <v>122.112</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="4">
         <v>-94.464</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="4">
         <v>55.296</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="4">
         <v>5.76</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="4">
         <v>54.144</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="4">
         <v>59.904</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="4">
         <v>69.12</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="4">
         <v>55.296</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="4">
         <v>27.648</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="4">
         <v>24.192</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="4">
         <v>54.144</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="4">
         <v>-13.824</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="4">
         <v>38.016</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="4">
         <v>46.08</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="4">
         <v>44.928</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" s="4">
         <v>36.864</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" s="4">
         <v>-66.816</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" s="4">
         <v>52.992</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="4">
         <v>-104.832</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" s="4">
         <v>-28.8</v>
       </c>
-      <c r="BF10">
-        <v>89.85599999999999</v>
-      </c>
-      <c r="BG10">
+      <c r="BF10" s="4">
+        <v>89.856</v>
+      </c>
+      <c r="BG10" s="4">
         <v>-18.432</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="4">
         <v>1.152</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" s="4">
         <v>-2.304</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" s="4">
         <v>38.016</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" s="4">
         <v>50.688</v>
       </c>
-      <c r="BL10">
-        <v>73.72799999999999</v>
-      </c>
-      <c r="BM10">
+      <c r="BL10" s="4">
+        <v>73.728</v>
+      </c>
+      <c r="BM10" s="4">
         <v>77.184</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" s="4">
         <v>-11.52</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" s="4">
         <v>-17.28</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" s="4">
         <v>-111.744</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" s="4">
         <v>12.672</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" s="4">
         <v>3.456</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" s="4">
         <v>-94.464</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" s="4">
         <v>23.04</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" s="4">
         <v>147.456</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" s="4">
         <v>1.152</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" s="4">
         <v>130.176</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" s="4">
         <v>64.512</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" s="4">
         <v>-57.6</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" s="4">
         <v>25.344</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" s="4">
         <v>-131.328</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" s="4">
         <v>25.344</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" s="4">
         <v>-5.76</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" s="4">
         <v>-35.712</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" s="4">
         <v>-41.472</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" s="4">
         <v>135.936</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" s="4">
         <v>92.16</v>
       </c>
-      <c r="CH10">
-        <v>-86.40000000000001</v>
-      </c>
-      <c r="CI10">
+      <c r="CH10" s="4">
+        <v>-86.4</v>
+      </c>
+      <c r="CI10" s="4">
         <v>91.008</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" s="4">
         <v>-131.328</v>
       </c>
-      <c r="CK10">
-        <v>-86.40000000000001</v>
-      </c>
-      <c r="CL10">
+      <c r="CK10" s="4">
+        <v>-86.4</v>
+      </c>
+      <c r="CL10" s="4">
         <v>26.496</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" s="4">
         <v>-4.608</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" s="4">
         <v>-94.464</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" s="4">
         <v>-77.184</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" s="4">
         <v>-195.84</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" s="4">
         <v>156.672</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" s="4">
         <v>157.824</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" s="4">
         <v>-107.136</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" s="4">
         <v>207.36</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>2.065</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>7000</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>7700</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>910</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>349.58</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>-207.9</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>-57.75</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>33.88</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="4">
         <v>-54.67</v>
       </c>
-      <c r="P11">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="Q11">
+      <c r="P11" s="4">
+        <v>-8.47</v>
+      </c>
+      <c r="Q11" s="4">
         <v>-3.08</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="4">
         <v>-7.7</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <v>-58.52</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <v>-12.32</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <v>6.93</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>-50.82</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="4">
         <v>-63.91</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="4">
         <v>-50.82</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="4">
         <v>12.32</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="4">
         <v>32.34</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="4">
         <v>-23.1</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="4">
         <v>54.67</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="4">
         <v>-21.56</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="4">
         <v>-63.14</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="4">
         <v>-28.49</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="4">
         <v>-43.12</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="4">
         <v>27.72</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="4">
         <v>6.16</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="4">
         <v>-2.31</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="4">
         <v>-27.72</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="4">
         <v>18.48</v>
       </c>
-      <c r="AL11">
-        <v>73.15000000000001</v>
-      </c>
-      <c r="AM11">
+      <c r="AL11" s="4">
+        <v>73.15</v>
+      </c>
+      <c r="AM11" s="4">
         <v>-54.67</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="4">
         <v>-5.39</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="4">
         <v>20.79</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="4">
         <v>10.01</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="4">
         <v>36.19</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="4">
         <v>62.37</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="4">
         <v>28.49</v>
       </c>
-      <c r="AT11">
-        <v>78.54000000000001</v>
-      </c>
-      <c r="AU11">
+      <c r="AT11" s="4">
+        <v>78.54</v>
+      </c>
+      <c r="AU11" s="4">
         <v>31.57</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="4">
         <v>44.66</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="4">
         <v>20.02</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="4">
         <v>-6.93</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="4">
         <v>31.57</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="4">
         <v>21.56</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" s="4">
         <v>-6.93</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" s="4">
         <v>-33.11</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" s="4">
         <v>0.77</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="4">
         <v>-36.96</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="4">
         <v>-12.32</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="4">
         <v>52.36</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="4">
         <v>-43.89</v>
       </c>
-      <c r="BH11">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="BI11">
+      <c r="BH11" s="4">
+        <v>-8.47</v>
+      </c>
+      <c r="BI11" s="4">
         <v>10.01</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" s="4">
         <v>20.79</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" s="4">
         <v>7.7</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" s="4">
         <v>45.43</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" s="4">
         <v>58.52</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" s="4">
         <v>20.79</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" s="4">
         <v>-13.86</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" s="4">
         <v>-84.7</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" s="4">
         <v>10.01</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" s="4">
         <v>4.62</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" s="4">
         <v>-65.45</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" s="4">
         <v>7.7</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" s="4">
         <v>80.08</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" s="4">
         <v>-3.08</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" s="4">
         <v>65.45</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" s="4">
         <v>-126.28</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" s="4">
         <v>-250.25</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" s="4">
         <v>-28.49</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" s="4">
         <v>-105.49</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" s="4">
         <v>125.51</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" s="4">
         <v>-18.48</v>
       </c>
-      <c r="CD11">
-        <v>-73.15000000000001</v>
-      </c>
-      <c r="CE11">
+      <c r="CD11" s="4">
+        <v>-73.15</v>
+      </c>
+      <c r="CE11" s="4">
         <v>-61.6</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" s="4">
         <v>133.21</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" s="4">
         <v>25.41</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" s="4">
         <v>-142.45</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" s="4">
         <v>140.14</v>
       </c>
-      <c r="CJ11">
-        <v>-94.70999999999999</v>
-      </c>
-      <c r="CK11">
+      <c r="CJ11" s="4">
+        <v>-94.71</v>
+      </c>
+      <c r="CK11" s="4">
         <v>90.86</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" s="4">
         <v>12.32</v>
       </c>
-      <c r="CM11">
-        <v>-80.84999999999999</v>
-      </c>
-      <c r="CN11">
-        <v>-64.68000000000001</v>
-      </c>
-      <c r="CO11">
+      <c r="CM11" s="4">
+        <v>-80.85</v>
+      </c>
+      <c r="CN11" s="4">
+        <v>-64.68</v>
+      </c>
+      <c r="CO11" s="4">
         <v>-209.44</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" s="4">
         <v>-19.25</v>
       </c>
-      <c r="CQ11">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="CR11">
+      <c r="CQ11" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="CR11" s="4">
         <v>170.94</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" s="4">
         <v>-108.57</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" s="4">
         <v>138.6</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>2.34</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>6463.838404</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>7000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>7910</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>810</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>415.275</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>215.943</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>215.943</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>128.933</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>-26.894</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>22.939</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>-16.611</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="5">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>-76.727</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <v>-10.283</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>-17.402</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>-10.283</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>-38.759</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="4">
         <v>-52.206</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="4">
         <v>27.685</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="4">
         <v>-14.238</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="4">
         <v>-30.849</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="4">
         <v>42.714</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="4">
         <v>-54.579</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="4">
         <v>-51.415</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="4">
         <v>20.566</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="4">
         <v>-38.759</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="4">
         <v>18.193</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="4">
         <v>-41.132</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="4">
         <v>13.447</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="4">
         <v>-52.997</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="4">
         <v>7.91</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="4">
         <v>87.801</v>
       </c>
-      <c r="AM12">
-        <v>-64.86199999999999</v>
-      </c>
-      <c r="AN12">
+      <c r="AM12" s="4">
+        <v>-64.862</v>
+      </c>
+      <c r="AN12" s="4">
         <v>49.042</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="4">
         <v>13.447</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="4">
         <v>31.64</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="4">
         <v>49.042</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="4">
         <v>55.37</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="4">
         <v>36.386</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="4">
         <v>5.537</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="4">
         <v>11.074</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="4">
         <v>59.325</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="4">
         <v>-1.582</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="4">
         <v>13.447</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" s="4">
         <v>41.923</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" s="4">
         <v>17.402</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" s="4">
         <v>22.148</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" s="4">
         <v>-38.759</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" s="4">
         <v>26.894</v>
       </c>
-      <c r="BD12">
-        <v>-79.89100000000001</v>
-      </c>
-      <c r="BE12">
+      <c r="BD12" s="4">
+        <v>-79.891</v>
+      </c>
+      <c r="BE12" s="4">
         <v>-18.193</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" s="4">
         <v>43.505</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" s="4">
         <v>-22.939</v>
       </c>
-      <c r="BH12">
-        <v>-8.701000000000001</v>
-      </c>
-      <c r="BI12">
+      <c r="BH12" s="4">
+        <v>-8.701</v>
+      </c>
+      <c r="BI12" s="4">
         <v>7.91</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" s="4">
         <v>30.058</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" s="4">
         <v>43.505</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" s="4">
         <v>58.534</v>
       </c>
-      <c r="BM12">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="BN12">
+      <c r="BM12" s="4">
+        <v>79.1</v>
+      </c>
+      <c r="BN12" s="4">
         <v>-0.791</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" s="4">
         <v>-16.611</v>
       </c>
-      <c r="BP12">
-        <v>-79.89100000000001</v>
-      </c>
-      <c r="BQ12">
+      <c r="BP12" s="4">
+        <v>-79.891</v>
+      </c>
+      <c r="BQ12" s="4">
         <v>-12.656</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" s="4">
         <v>15.82</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" s="4">
         <v>-45.878</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" s="4">
         <v>4.746</v>
       </c>
-      <c r="BU12">
-        <v>97.29300000000001</v>
-      </c>
-      <c r="BV12">
+      <c r="BU12" s="4">
+        <v>97.293</v>
+      </c>
+      <c r="BV12" s="4">
         <v>10.283</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" s="4">
         <v>130.515</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" s="4">
         <v>156.618</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" s="4">
         <v>163.737</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" s="4">
         <v>22.939</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" s="4">
         <v>-85.428</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" s="4">
         <v>38.759</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" s="4">
         <v>14.238</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" s="4">
         <v>-66.444</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" s="4">
         <v>-44.296</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" s="4">
         <v>158.991</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" s="4">
         <v>38.759</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" s="4">
         <v>-161.364</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" s="4">
         <v>103.621</v>
       </c>
-      <c r="CJ12">
-        <v>-9.492000000000001</v>
-      </c>
-      <c r="CK12">
+      <c r="CJ12" s="4">
+        <v>-9.492</v>
+      </c>
+      <c r="CK12" s="4">
         <v>-7.91</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" s="4">
         <v>122.605</v>
       </c>
-      <c r="CM12">
-        <v>-8.701000000000001</v>
-      </c>
-      <c r="CN12">
+      <c r="CM12" s="4">
+        <v>-8.701</v>
+      </c>
+      <c r="CN12" s="4">
         <v>-40.341</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" s="4">
         <v>-27.685</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" s="4">
         <v>-22.939</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" s="4">
         <v>-10.283</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" s="4">
         <v>221.48</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" s="4">
         <v>-147.917</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" s="4">
         <v>142.38</v>
       </c>
     </row>
